--- a/datasets_single/kpcb_caz_avi_com.xlsx
+++ b/datasets_single/kpcb_caz_avi_com.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F52F34-0950-A54D-8C9B-F7BF892E8638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CADCB1-7152-9544-ADFA-412C19F01990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="1320" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
   <si>
     <t>replicate</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>avi_s</t>
+  </si>
+  <si>
+    <t>ctz_mic</t>
   </si>
 </sst>
 </file>
@@ -907,15 +910,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,8 +943,11 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -968,8 +974,12 @@
         <f>F2*42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>E2/1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -996,8 +1006,12 @@
         <f t="shared" ref="H3:H66" si="1">F3*42</f>
         <v>2.3940000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">E3/1</f>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1024,8 +1038,12 @@
         <f t="shared" si="1"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1052,8 +1070,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1080,8 +1102,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1108,8 +1134,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1136,8 +1166,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1164,8 +1198,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1192,8 +1230,12 @@
         <f t="shared" si="1"/>
         <v>2.3940000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1220,8 +1262,12 @@
         <f t="shared" si="1"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1248,8 +1294,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1276,8 +1326,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1304,8 +1358,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1332,8 +1390,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1360,8 +1422,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1388,8 +1454,12 @@
         <f t="shared" si="1"/>
         <v>2.3940000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1416,8 +1486,12 @@
         <f t="shared" si="1"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1444,8 +1518,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1472,8 +1550,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1500,8 +1582,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1528,8 +1614,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1556,8 +1646,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1584,8 +1678,12 @@
         <f t="shared" si="1"/>
         <v>2.3940000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1612,8 +1710,12 @@
         <f t="shared" si="1"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1640,8 +1742,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1668,8 +1774,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1696,8 +1806,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1724,8 +1838,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1752,8 +1870,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1780,8 +1902,12 @@
         <f t="shared" si="1"/>
         <v>2.3940000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1808,8 +1934,12 @@
         <f t="shared" si="1"/>
         <v>4.9874999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1836,8 +1966,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1864,8 +1998,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1892,8 +2030,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1920,8 +2062,12 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1948,8 +2094,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1976,8 +2126,12 @@
         <f t="shared" si="1"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
@@ -2004,8 +2158,12 @@
         <f t="shared" si="1"/>
         <v>14.9625</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>6</v>
       </c>
@@ -2032,8 +2190,12 @@
         <f t="shared" si="1"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>6</v>
       </c>
@@ -2060,8 +2222,12 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -2088,8 +2254,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -2116,8 +2286,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2144,8 +2318,12 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7</v>
       </c>
@@ -2172,8 +2350,12 @@
         <f t="shared" si="1"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
@@ -2200,8 +2382,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>8</v>
       </c>
@@ -2228,8 +2414,12 @@
         <f t="shared" si="1"/>
         <v>14.9625</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>8</v>
       </c>
@@ -2256,8 +2446,12 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>9</v>
       </c>
@@ -2284,8 +2478,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -2312,8 +2510,12 @@
         <f t="shared" si="1"/>
         <v>14.9625</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9</v>
       </c>
@@ -2340,8 +2542,12 @@
         <f t="shared" si="1"/>
         <v>29.925000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10</v>
       </c>
@@ -2368,8 +2574,12 @@
         <f t="shared" si="1"/>
         <v>14.9625</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10</v>
       </c>
@@ -2396,8 +2606,12 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>11</v>
       </c>
@@ -2424,8 +2638,12 @@
         <f t="shared" si="1"/>
         <v>14.9625</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>11</v>
       </c>
@@ -2452,8 +2670,12 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>12</v>
       </c>
@@ -2480,8 +2702,12 @@
         <f t="shared" si="1"/>
         <v>14.9625</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>12</v>
       </c>
@@ -2508,8 +2734,12 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>13</v>
       </c>
@@ -2536,8 +2766,12 @@
         <f t="shared" si="1"/>
         <v>14.9625</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>13</v>
       </c>
@@ -2564,8 +2798,12 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>14</v>
       </c>
@@ -2592,8 +2830,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>14</v>
       </c>
@@ -2620,8 +2862,12 @@
         <f t="shared" si="1"/>
         <v>18.353999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>1.6625000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>14</v>
       </c>
@@ -2648,8 +2894,12 @@
         <f t="shared" si="1"/>
         <v>22.344000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>2.1375000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>14</v>
       </c>
@@ -2676,8 +2926,12 @@
         <f t="shared" si="1"/>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>15</v>
       </c>
@@ -2704,8 +2958,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>15</v>
       </c>
@@ -2732,8 +2990,12 @@
         <f t="shared" si="1"/>
         <v>18.353999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>1.6625000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2760,8 +3022,12 @@
         <f t="shared" si="1"/>
         <v>22.344000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>2.1375000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>15</v>
       </c>
@@ -2781,15 +3047,19 @@
         <v>0.59375</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G68" si="2">E67*42</f>
+        <f t="shared" ref="G67:G68" si="3">E67*42</f>
         <v>99.75</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H68" si="3">F67*42</f>
+        <f t="shared" ref="H67:H68" si="4">F67*42</f>
         <v>24.9375</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="shared" ref="I67:I68" si="5">E67/1</f>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>15</v>
       </c>
@@ -2809,12 +3079,16 @@
         <v>0.95</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>159.6</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.9</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
